--- a/DateBase/orders/Dang Nguyen_2025-9-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-13.xlsx
@@ -835,6 +835,9 @@
       <c r="G2" t="str">
         <v>055101551632966126487726731031574010105510101010101010202020</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
